--- a/iedb_immrep/dat/immrep_exclusion.xlsx
+++ b/iedb_immrep/dat/immrep_exclusion.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erichardson/PycharmProjects/iedb_immrep25/iedb_immrep/dat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE66F3-FA56-274D-8E80-067B5F82FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9AC63-ACE3-F34C-B3D6-51F79A485D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{C39E0303-F9BA-5346-8664-4D4D21EB70B8}"/>
+    <workbookView xWindow="7140" yWindow="920" windowWidth="28100" windowHeight="17440" xr2:uid="{C39E0303-F9BA-5346-8664-4D4D21EB70B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>Ref</t>
   </si>
@@ -170,9 +171,6 @@
     <t>Fuchs_2017</t>
   </si>
   <si>
-    <t>https://pubmed.ncbi.nlm.nih.gov/29997621/</t>
-  </si>
-  <si>
     <t>Sant_2018</t>
   </si>
   <si>
@@ -188,30 +186,170 @@
     <t>https://www.iedb.org/reference/1036521</t>
   </si>
   <si>
-    <t>Povlsen_2024</t>
-  </si>
-  <si>
     <t>https://www.iedb.org/reference/1045502</t>
   </si>
   <si>
-    <t>iTRAP correction has been applied</t>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>PMID:37133356</t>
+  </si>
+  <si>
+    <t>Povlsen_2023</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC10156162/</t>
+  </si>
+  <si>
+    <t>PMID:34793243</t>
+  </si>
+  <si>
+    <t>PMID:30418433</t>
+  </si>
+  <si>
+    <t>PMID:35383307</t>
+  </si>
+  <si>
+    <t>PMID:35750048</t>
+  </si>
+  <si>
+    <t>PMID:37872153</t>
+  </si>
+  <si>
+    <t>PMID:28636592</t>
+  </si>
+  <si>
+    <t>PMID:31765434</t>
+  </si>
+  <si>
+    <t>PMID:30575715</t>
+  </si>
+  <si>
+    <t>PMID:28636589</t>
+  </si>
+  <si>
+    <t>PMID:32081129</t>
+  </si>
+  <si>
+    <t>PMID:33951417</t>
+  </si>
+  <si>
+    <t>PMID:30451992</t>
+  </si>
+  <si>
+    <t>PMID:28300170</t>
+  </si>
+  <si>
+    <t>PMID:29997621</t>
+  </si>
+  <si>
+    <t>PMID:34811538</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC9184244/</t>
+  </si>
+  <si>
+    <t>Ma_2021</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>PMID:37749325</t>
+  </si>
+  <si>
+    <t>van de Sandt_2023</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC10602853/</t>
+  </si>
+  <si>
+    <t>https://iedb.org/reference/1043054</t>
+  </si>
+  <si>
+    <t>https://github.com/antigenomics/vdjdb-db/issues/326</t>
+  </si>
+  <si>
+    <t>https://www.10xgenomics.com/resources/application-notes/a-new-way-of-exploring-immunity-linking-highly-multiplexed-antigen-recognition-to-immune-repertoire-and-phenotype/#</t>
+  </si>
+  <si>
+    <t>PMID:38439958</t>
+  </si>
+  <si>
+    <t>Voogd_2024</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC10909886/</t>
+  </si>
+  <si>
+    <t>https://github.com/antigenomics/vdjdb-db/issues/351</t>
+  </si>
+  <si>
+    <t>https://iedb.org/reference/1043644</t>
+  </si>
+  <si>
+    <t>Chour_2020</t>
+  </si>
+  <si>
+    <t>https://iedb.org/reference/1031247</t>
+  </si>
+  <si>
+    <t>Lee_2017</t>
+  </si>
+  <si>
+    <t>PMID:28103239</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC5289640/</t>
+  </si>
+  <si>
+    <t>PMID:38684663</t>
+  </si>
+  <si>
+    <t>PMID:38866784</t>
+  </si>
+  <si>
+    <t>Menon_2024</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC11059233/</t>
+  </si>
+  <si>
+    <t>Wang_2024</t>
+  </si>
+  <si>
+    <t>https://iedb.org/reference/1044352</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC11169541/</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC6030351/</t>
+  </si>
+  <si>
+    <t>This sheet examines all references in VDJdb/IEDB that have &gt;100 associated paired TCRs.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.05.04.20085779</t>
+  </si>
+  <si>
+    <t>NB: iTRAP corrected</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>VDJdb_alias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,10 +363,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF2E2E2E"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,15 +419,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812EF9AB-0DDF-EE41-BB51-B7FD0B80CB11}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,345 +777,622 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="36.33203125" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -965,7 +1414,46 @@
     <hyperlink ref="C7" r:id="rId16" xr:uid="{2A447163-C7CE-7445-8CD3-A36C2ADC946A}"/>
     <hyperlink ref="C14" r:id="rId17" xr:uid="{269F242D-7D11-5247-99BA-4BF8B6452735}"/>
     <hyperlink ref="B16" r:id="rId18" xr:uid="{B356AA81-99CF-AA4E-841A-3912DDB7AD92}"/>
+    <hyperlink ref="B17" r:id="rId19" xr:uid="{1699CD49-FA42-9C46-9943-EF3BDAF70063}"/>
+    <hyperlink ref="G17" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=37133356" xr:uid="{784E439D-9447-1645-8E71-D25DC96DC6B9}"/>
+    <hyperlink ref="G8" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=31765434" xr:uid="{CA96CDF7-5A88-124A-B8CC-BF0BC2AA6B93}"/>
+    <hyperlink ref="G9" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=30575715" xr:uid="{D84225D5-49E3-0048-BA7A-ADB4D53B6A84}"/>
+    <hyperlink ref="G10" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=28636589" xr:uid="{1C2598D5-9BB0-D042-B3A7-A2A7EB77A8E5}"/>
+    <hyperlink ref="G11" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=32081129" xr:uid="{E48FEEE6-9F62-F441-A5C0-437920071D23}"/>
+    <hyperlink ref="G12" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=33951417" xr:uid="{44F0CE4D-B277-EB47-87EA-475730DAA56E}"/>
+    <hyperlink ref="G15" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pubmed/?term=29997621" xr:uid="{8A292C60-CFEC-FD48-8F04-ACA64F503C52}"/>
+    <hyperlink ref="B22" r:id="rId27" xr:uid="{E2725F71-847E-4046-B8B7-4D1197EA78D7}"/>
+    <hyperlink ref="C18" r:id="rId28" xr:uid="{424E004B-307B-B041-9FEB-56BDACFF3BEE}"/>
+    <hyperlink ref="C19" r:id="rId29" xr:uid="{8C4F00A5-29AA-6B44-8B81-71D4C0939AD5}"/>
+    <hyperlink ref="C20" r:id="rId30" xr:uid="{F699CBDD-13D0-B842-8F35-75CC6149E7A1}"/>
+    <hyperlink ref="C22" r:id="rId31" xr:uid="{1930593C-79D4-6747-8405-0A194135F540}"/>
+    <hyperlink ref="C23" r:id="rId32" xr:uid="{F0E53AF6-F8A8-F24F-AB6F-46B6A6AE8C36}"/>
+    <hyperlink ref="C24" r:id="rId33" xr:uid="{BA33E396-716A-6D48-ADAB-A638606E267E}"/>
+    <hyperlink ref="H21" r:id="rId34" xr:uid="{5D6DB615-5582-584F-8417-8216549AD6EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10D939A-F61C-5E40-B66A-8AAFD5564C72}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="75.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>